--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://isbhydmoh-my.sharepoint.com/personal/harmanpreet_kaur_isb_edu/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hadoop\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{4F99744E-B5F3-48AD-90FB-9265948C14BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F2D366-1DC5-4BA5-95B3-CF5628158649}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF9302-BC16-4243-8969-00687459A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="15840" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="28680" yWindow="-3780" windowWidth="38640" windowHeight="21240" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
   <si>
     <t>sku</t>
   </si>
@@ -627,13 +627,19 @@
   </si>
   <si>
     <t>NSAP</t>
+  </si>
+  <si>
+    <t>moe-udise_basic_details-pl-ot-hvd</t>
+  </si>
+  <si>
+    <t>UDISE 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,22 +1052,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
-    <col min="2" max="2" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1160,7 +1166,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1194,7 +1200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1211,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1245,7 +1251,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1262,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1279,7 +1285,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1296,7 +1302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1313,7 +1319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1330,7 +1336,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1347,7 +1353,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1364,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1415,7 +1421,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1432,7 +1438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1624,7 +1630,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1638,7 +1644,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1652,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1666,7 +1672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -1736,7 +1742,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
@@ -1764,7 +1770,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
@@ -1806,7 +1812,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -1834,7 +1840,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -1876,7 +1882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -1890,7 +1896,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -1904,7 +1910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -1932,7 +1938,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -2100,7 +2106,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -2128,7 +2134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -2142,7 +2148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>170</v>
       </c>
@@ -2156,7 +2162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>174</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -2198,7 +2204,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>178</v>
       </c>
@@ -2212,7 +2218,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -2226,7 +2232,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -2240,7 +2246,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -2254,7 +2260,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -2282,7 +2288,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -2305,6 +2311,20 @@
       </c>
       <c r="D83" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>196</v>
+      </c>
+      <c r="B84" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2314,12 +2334,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2556,21 +2575,47 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11C8405-FC71-4CFB-8AB1-014181310CAB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A11C8405-FC71-4CFB-8AB1-014181310CAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9e8d6f6b-65dc-4718-853b-e7e6f849bba4"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hadoop\bin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Indian School of Business\backup\idp\high-value-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCF9302-BC16-4243-8969-00687459A6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08995BF-EE51-463C-8402-4D446DC27ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3780" windowWidth="38640" windowHeight="21240" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="31755" yWindow="2010" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
   <si>
     <t>sku</t>
   </si>
@@ -633,6 +633,12 @@
   </si>
   <si>
     <t>UDISE 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	morth-vehicle-registration-ol-mn-abc</t>
+  </si>
+  <si>
+    <t>VAHAN Vehicle Registrations</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2327,6 +2333,20 @@
         <v>95</v>
       </c>
     </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D85" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E81" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2334,11 +2354,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2575,20 +2596,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2613,9 +2631,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Indian School of Business\backup\idp\high-value-datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31697\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08995BF-EE51-463C-8402-4D446DC27ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A2839-03DC-4DFE-BB18-ACE9D0A30E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="2010" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="36705" yWindow="-1515" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,30 +2321,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D84" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2354,12 +2354,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2596,17 +2595,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2631,11 +2633,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31697\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Indian School of Business\backup\idp\high-value-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179A2839-03DC-4DFE-BB18-ACE9D0A30E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08995BF-EE51-463C-8402-4D446DC27ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36705" yWindow="-1515" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="31755" yWindow="2010" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,30 +2321,30 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C84" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B85" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C85" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="D85" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2354,11 +2354,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2595,20 +2596,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2633,9 +2631,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Indian School of Business\backup\idp\high-value-datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08995BF-EE51-463C-8402-4D446DC27ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718DA0BC-F0AB-4E66-87F6-474FDD5E5B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31755" yWindow="2010" windowWidth="28800" windowHeight="15375" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1060,20 +1060,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.453125" customWidth="1"/>
+    <col min="2" max="2" width="76.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>126</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>156</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>161</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>165</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>168</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>170</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>174</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>176</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>178</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>180</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>182</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>184</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>188</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>192</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>194</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>196</v>
       </c>
@@ -2333,7 +2333,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>198</v>
       </c>
@@ -2354,12 +2354,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2596,17 +2595,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2631,11 +2633,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718DA0BC-F0AB-4E66-87F6-474FDD5E5B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87553C34-7200-45DC-B50D-DDE14BFD24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
@@ -1061,7 +1061,7 @@
   <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2354,11 +2354,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2595,20 +2596,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2633,9 +2631,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87553C34-7200-45DC-B50D-DDE14BFD24A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E898E-2D27-4536-A32E-21BE36DDC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
@@ -1060,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2354,12 +2354,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2596,17 +2595,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2631,11 +2633,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31697\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E898E-2D27-4536-A32E-21BE36DDC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0878EB7-16F0-4141-BD80-B6DD5EF74287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="209">
   <si>
     <t>sku</t>
   </si>
@@ -533,9 +533,6 @@
     <t>mord-pmgsy_roads-pl-ot-ypf</t>
   </si>
   <si>
-    <t>PMGSY Financial and Physical Report</t>
-  </si>
-  <si>
     <t>morth-vahan_reg_by_fuel-ol-mn-aaa</t>
   </si>
   <si>
@@ -639,6 +636,36 @@
   </si>
   <si>
     <t>VAHAN Vehicle Registrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	mocf-fertilizer_sales-pl-dl-amc</t>
+  </si>
+  <si>
+    <t>Daily Fertilizer Sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	mojs-wris_cgwb_wells_level_changes-pl-ot-aaa</t>
+  </si>
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>mci-import_export_port_level-ol-yr-fzh</t>
+  </si>
+  <si>
+    <t>Port Level Import Export</t>
+  </si>
+  <si>
+    <t>mci-tradestat_impexp_full-cn-m</t>
+  </si>
+  <si>
+    <t>Exports and Imports of India</t>
+  </si>
+  <si>
+    <t>Road Connectivity-PMGSY</t>
+  </si>
+  <si>
+    <t>Road</t>
   </si>
 </sst>
 </file>
@@ -667,12 +694,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -713,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -724,6 +757,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1058,22 +1092,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.453125" customWidth="1"/>
-    <col min="2" max="2" width="76.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.44140625" customWidth="1"/>
+    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1090,7 +1124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1104,7 +1138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1121,7 +1155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1155,7 +1189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1206,7 +1240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1240,7 +1274,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1274,7 +1308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1325,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1308,7 +1342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1325,7 +1359,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1342,7 +1376,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1359,7 +1393,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1376,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1393,7 +1427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1410,7 +1444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1427,7 +1461,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1444,21 +1478,21 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1475,7 +1509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1492,7 +1526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1509,7 +1543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1526,7 +1560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1543,7 +1577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -1577,7 +1611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1594,7 +1628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1608,7 +1642,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1622,7 +1656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1636,7 +1670,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1650,7 +1684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1664,7 +1698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1678,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1692,7 +1726,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1706,7 +1740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1720,7 +1754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -1734,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -1748,7 +1782,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -1762,7 +1796,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
@@ -1776,7 +1810,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
@@ -1790,7 +1824,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -1804,7 +1838,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
@@ -1818,7 +1852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -1832,7 +1866,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -1846,35 +1880,35 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -1888,7 +1922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -1902,7 +1936,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -1916,7 +1950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -1930,7 +1964,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -1944,7 +1978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1958,7 +1992,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -1972,7 +2006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -1986,7 +2020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -2000,7 +2034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -2014,7 +2048,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2028,7 +2062,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -2042,7 +2076,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2056,7 +2090,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2070,21 +2104,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2098,110 +2132,110 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>164</v>
       </c>
-      <c r="C69" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B70" t="s">
         <v>165</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>166</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>167</v>
       </c>
-      <c r="D70" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B71" t="s">
         <v>168</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>166</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>169</v>
       </c>
-      <c r="C71" t="s">
-        <v>167</v>
-      </c>
-      <c r="D71" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B72" t="s">
         <v>170</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
         <v>171</v>
       </c>
-      <c r="C72" t="s">
-        <v>167</v>
-      </c>
-      <c r="D72" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B73" t="s">
         <v>172</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>173</v>
       </c>
-      <c r="C73" t="s">
-        <v>167</v>
-      </c>
-      <c r="D73" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B74" t="s">
         <v>174</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>166</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>175</v>
       </c>
-      <c r="C74" t="s">
-        <v>167</v>
-      </c>
-      <c r="D74" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B75" t="s">
         <v>176</v>
-      </c>
-      <c r="B75" t="s">
-        <v>177</v>
       </c>
       <c r="C75" t="s">
         <v>11</v>
@@ -2210,12 +2244,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" t="s">
         <v>178</v>
-      </c>
-      <c r="B76" t="s">
-        <v>179</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
@@ -2224,12 +2258,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>179</v>
+      </c>
+      <c r="B77" t="s">
         <v>180</v>
-      </c>
-      <c r="B77" t="s">
-        <v>181</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
@@ -2238,12 +2272,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>181</v>
+      </c>
+      <c r="B78" t="s">
         <v>182</v>
-      </c>
-      <c r="B78" t="s">
-        <v>183</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
@@ -2252,12 +2286,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" t="s">
         <v>184</v>
-      </c>
-      <c r="B79" t="s">
-        <v>185</v>
       </c>
       <c r="C79" t="s">
         <v>11</v>
@@ -2266,51 +2300,51 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>187</v>
       </c>
-      <c r="C80" t="s">
-        <v>90</v>
-      </c>
-      <c r="D80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B81" t="s">
         <v>188</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>189</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>190</v>
       </c>
-      <c r="D81" t="s">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B82" t="s">
         <v>192</v>
-      </c>
-      <c r="B82" t="s">
-        <v>193</v>
       </c>
       <c r="C82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>193</v>
+      </c>
+      <c r="B83" t="s">
         <v>194</v>
-      </c>
-      <c r="B83" t="s">
-        <v>195</v>
       </c>
       <c r="C83" t="s">
         <v>106</v>
@@ -2319,31 +2353,87 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C84" t="s">
-        <v>90</v>
-      </c>
-      <c r="D84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B85" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C85" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" t="s">
+      <c r="B86" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2354,11 +2444,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2595,20 +2686,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2633,9 +2721,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/high_value_datasets.xlsx
+++ b/high_value_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31697\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0878EB7-16F0-4141-BD80-B6DD5EF74287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD9B476-F1F2-47BC-B646-5591E5CA36FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4EB7C4AF-9817-468B-9337-4C375DB1459C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="213">
   <si>
     <t>sku</t>
   </si>
@@ -666,6 +666,18 @@
   </si>
   <si>
     <t>Road</t>
+  </si>
+  <si>
+    <t>mord-mnrega-gp-yr-abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mahatma Gandhi National Rural Employment Guarantee Act (MGNREGA) </t>
+  </si>
+  <si>
+    <t>Pradhan Mantri Awaas Yojana - Gramin</t>
+  </si>
+  <si>
+    <t>mohua-pmayg-gp-ol-abc</t>
   </si>
 </sst>
 </file>
@@ -1092,22 +1104,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.44140625" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="59.453125" customWidth="1"/>
+    <col min="2" max="2" width="76.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1172,7 +1184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1189,7 +1201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1206,7 +1218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1240,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1325,7 +1337,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -1359,7 +1371,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1376,7 +1388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1444,7 +1456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -1478,7 +1490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>56</v>
       </c>
@@ -1492,7 +1504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>64</v>
       </c>
@@ -1526,7 +1538,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -1543,7 +1555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>69</v>
       </c>
@@ -1560,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>71</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -1594,7 +1606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
@@ -1611,7 +1623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>77</v>
       </c>
@@ -1628,7 +1640,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -1642,7 +1654,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>81</v>
       </c>
@@ -1656,7 +1668,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -1670,7 +1682,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -1698,7 +1710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1712,7 +1724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -1726,7 +1738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1740,7 +1752,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -1754,7 +1766,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -1768,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>104</v>
       </c>
@@ -1782,7 +1794,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>108</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>110</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>112</v>
       </c>
@@ -1824,7 +1836,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>114</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>116</v>
       </c>
@@ -1852,7 +1864,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>118</v>
       </c>
@@ -1866,7 +1878,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>121</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>123</v>
       </c>
@@ -1894,7 +1906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>126</v>
       </c>
@@ -1908,7 +1920,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -1922,7 +1934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>132</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>134</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -1978,7 +1990,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>138</v>
       </c>
@@ -1992,7 +2004,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -2006,7 +2018,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -2020,7 +2032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>144</v>
       </c>
@@ -2034,7 +2046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>146</v>
       </c>
@@ -2048,7 +2060,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>148</v>
       </c>
@@ -2062,7 +2074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>150</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>152</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>154</v>
       </c>
@@ -2104,7 +2116,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>156</v>
       </c>
@@ -2118,7 +2130,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -2132,7 +2144,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>161</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>163</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -2174,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>167</v>
       </c>
@@ -2188,7 +2200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>171</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>173</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>175</v>
       </c>
@@ -2244,7 +2256,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>177</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -2272,7 +2284,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>181</v>
       </c>
@@ -2286,7 +2298,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>183</v>
       </c>
@@ -2300,7 +2312,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>185</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>191</v>
       </c>
@@ -2339,7 +2351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -2353,7 +2365,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>195</v>
       </c>
@@ -2367,7 +2379,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>197</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>199</v>
       </c>
@@ -2395,7 +2407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>201</v>
       </c>
@@ -2409,7 +2421,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>203</v>
       </c>
@@ -2423,7 +2435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>205</v>
       </c>
@@ -2437,19 +2449,45 @@
         <v>12</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E81" xr:uid="{25B8A846-F4BB-40CC-84F0-B7CCFF461F65}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2686,17 +2724,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2721,11 +2762,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9106F8C-F34C-4D94-BE95-9AEFF7EE5E76}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC16AD0-BEA8-4D4A-967D-54E7DFE02C23}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="2ae390d3-5390-45a7-b10d-acc3dc2cfb8d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>